--- a/Johrenアップデート予定表Ver1.11.xlsx
+++ b/Johrenアップデート予定表Ver1.11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GZ_A10041\Documents\要塞少女\アップデート表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GZ_A10041\Documents\Test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF688C03-3ABC-4720-872B-5751C4542C5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A130E4C-7EAD-46F9-AF28-927EECBA00C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D268AD98-C0DA-4324-B234-AE6B81AB05EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="193">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1883,6 +1883,10 @@
     <rPh sb="0" eb="2">
       <t>フメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2493,13 +2497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6561335A-6146-43B8-A2F0-2F888A4D6291}">
-  <dimension ref="A1:NS185"/>
+  <dimension ref="A1:NS189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="DF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="DF171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8618,7 +8622,7 @@
         <v>44061</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G125" ca="1" si="16">N(INDIRECT("RC[-2]",FALSE))+496</f>
+        <f t="shared" ref="G113:G124" ca="1" si="16">N(INDIRECT("RC[-2]",FALSE))+496</f>
         <v>44557</v>
       </c>
       <c r="H113" s="17"/>
@@ -8974,7 +8978,7 @@
         <v>44075</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" ref="G127:G139" ca="1" si="17">N(INDIRECT("RC[-2]",FALSE))+496</f>
+        <f t="shared" ref="G127:G138" ca="1" si="17">N(INDIRECT("RC[-2]",FALSE))+496</f>
         <v>44571</v>
       </c>
       <c r="H127" s="17"/>
@@ -9330,7 +9334,7 @@
         <v>44089</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G150" ca="1" si="18">N(INDIRECT("RC[-2]",FALSE))+496</f>
+        <f t="shared" ref="G141:G149" ca="1" si="18">N(INDIRECT("RC[-2]",FALSE))+496</f>
         <v>44585</v>
       </c>
       <c r="H141" s="17"/>
@@ -9609,7 +9613,7 @@
         <v>44103</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" ref="G152:G163" ca="1" si="19">N(INDIRECT("RC[-2]",FALSE))+496</f>
+        <f t="shared" ref="G152:G162" ca="1" si="19">N(INDIRECT("RC[-2]",FALSE))+496</f>
         <v>44599</v>
       </c>
       <c r="H152" s="17"/>
@@ -9944,7 +9948,7 @@
         <v>44117</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" ref="G165:G177" ca="1" si="20">N(INDIRECT("RC[-2]",FALSE))+496</f>
+        <f t="shared" ref="G165:G176" ca="1" si="20">N(INDIRECT("RC[-2]",FALSE))+496</f>
         <v>44613</v>
       </c>
       <c r="H165" s="17"/>
@@ -10406,6 +10410,16 @@
       <c r="H185" s="17">
         <f ca="1">N(INDIRECT("RC[-2]",FALSE))+496</f>
         <v>44641</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B188" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B189" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Johrenアップデート予定表Ver1.11.xlsx
+++ b/Johrenアップデート予定表Ver1.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GZ_A10041\Documents\Test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A130E4C-7EAD-46F9-AF28-927EECBA00C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07F966-5E45-4922-8FE9-1CE2E67E5AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D268AD98-C0DA-4324-B234-AE6B81AB05EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="192">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1883,10 +1883,6 @@
     <rPh sb="0" eb="2">
       <t>フメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2497,13 +2493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6561335A-6146-43B8-A2F0-2F888A4D6291}">
-  <dimension ref="A1:NS189"/>
+  <dimension ref="A1:NS185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="DF171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B190" sqref="B190"/>
+      <selection pane="bottomRight" activeCell="B189" sqref="B188:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10412,16 +10408,6 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B188" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B189" s="2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A2:H185" xr:uid="{4CAE0676-B511-4AFB-A97C-258DE0EF088E}"/>
   <phoneticPr fontId="1"/>

--- a/Johrenアップデート予定表Ver1.11.xlsx
+++ b/Johrenアップデート予定表Ver1.11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GZ_A10041\Documents\Test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07F966-5E45-4922-8FE9-1CE2E67E5AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9FC3A7-EA29-43AD-8397-7234DB3FD996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D268AD98-C0DA-4324-B234-AE6B81AB05EA}"/>
+    <workbookView xWindow="35175" yWindow="4830" windowWidth="13830" windowHeight="7260" xr2:uid="{D268AD98-C0DA-4324-B234-AE6B81AB05EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="193">
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
@@ -1883,6 +1883,10 @@
     <rPh sb="0" eb="2">
       <t>フメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2493,13 +2497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6561335A-6146-43B8-A2F0-2F888A4D6291}">
-  <dimension ref="A1:NS185"/>
+  <dimension ref="A1:NS187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="DF171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="DF183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B189" sqref="B188:B189"/>
+      <selection pane="bottomRight" activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10408,6 +10412,11 @@
         <v>44641</v>
       </c>
     </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B187" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H185" xr:uid="{4CAE0676-B511-4AFB-A97C-258DE0EF088E}"/>
   <phoneticPr fontId="1"/>
